--- a/Assets/RawData/Config/技能配置.xlsx
+++ b/Assets/RawData/Config/技能配置.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -36,6 +36,9 @@
     <t>cd</t>
   </si>
   <si>
+    <t>damage</t>
+  </si>
+  <si>
     <t>input</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
   </si>
   <si>
     <t>技能冷却时间毫秒</t>
+  </si>
+  <si>
+    <t>技能伤害</t>
   </si>
   <si>
     <t>技能触发</t>
@@ -137,10 +143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -152,22 +158,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,30 +240,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,86 +254,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,19 +310,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,163 +478,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,6 +501,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -518,17 +578,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,64 +601,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,133 +619,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1092,27 +1098,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
+    <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="21.5" customWidth="1"/>
-    <col min="10" max="11" width="17.375" customWidth="1"/>
-    <col min="12" max="12" width="24.375" customWidth="1"/>
-    <col min="13" max="13" width="13.375" customWidth="1"/>
-    <col min="14" max="14" width="13.5" customWidth="1"/>
+    <col min="6" max="7" width="17.25" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="12" width="17.375" customWidth="1"/>
+    <col min="13" max="13" width="24.375" customWidth="1"/>
+    <col min="14" max="14" width="13.375" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1152,95 +1159,104 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:13">
+    <row r="2" s="1" customFormat="1" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:13">
+    <row r="3" s="1" customFormat="1" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="2:11">
+    <row r="4" s="1" customFormat="1" spans="2:12">
       <c r="B4" s="1">
         <v>100001</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1">
         <v>4</v>
@@ -1248,27 +1264,30 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="1">
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="1">
+        <v>33</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>100002</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1">
         <v>5</v>
@@ -1276,30 +1295,33 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1">
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>1</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>100003</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1">
         <v>6</v>
@@ -1307,30 +1329,33 @@
       <c r="F6" s="1">
         <v>3</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1">
+      <c r="G6" s="1">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="1">
+        <v>37</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>100004</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1">
         <v>6</v>
@@ -1338,30 +1363,33 @@
       <c r="F7" s="1">
         <v>50000</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1">
+      <c r="G7" s="1">
+        <v>100</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="1">
+        <v>37</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="1">
         <v>1</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>100005</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E8" s="1">
         <v>6</v>
@@ -1369,21 +1397,24 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1">
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1">
         <v>10</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="1">
+        <v>37</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="1">
         <v>1</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="O8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
